--- a/example.xlsx
+++ b/example.xlsx
@@ -1743,7 +1743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="tree" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="235">
   <si>
     <t>│  README.md</t>
   </si>
@@ -915,6 +915,36 @@
   </si>
   <si>
     <t>CounterServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>includeTagSample.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/example/includeTagSample.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>includeDirectiveSample.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/example/includeDirectiveSample.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動的インクルード</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性的インクルード</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1337,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1739,11 +1769,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3348,13 +3378,13 @@
         <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>149</v>
+        <v>346</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>149</v>
@@ -3369,7 +3399,7 @@
         <v>149</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>149</v>
@@ -3449,16 +3479,16 @@
     </row>
     <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>149</v>
+        <v>349</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>149</v>
@@ -3473,7 +3503,7 @@
         <v>149</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>149</v>
@@ -3553,7 +3583,7 @@
     </row>
     <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>149</v>
@@ -3653,6 +3683,110 @@
       </c>
       <c r="AH18" s="9" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3671,9 +3805,11 @@
     <hyperlink ref="D12" r:id="rId11"/>
     <hyperlink ref="D14" r:id="rId12"/>
     <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tree" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tree!$A$6:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'引数、変数'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'引数、変数'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="253">
   <si>
     <t>│  README.md</t>
   </si>
@@ -28,9 +28,6 @@
     <t>│</t>
   </si>
   <si>
-    <t>├─java</t>
-  </si>
-  <si>
     <t>│  ├─model</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>│  │</t>
   </si>
   <si>
-    <t>│  └─servlet</t>
-  </si>
-  <si>
     <t>│          FormSampleServlet.java</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>│          SampleServlet.java</t>
   </si>
   <si>
-    <t>└─webapp</t>
-  </si>
-  <si>
     <t xml:space="preserve">    │  formSample.jsp</t>
   </si>
   <si>
@@ -95,12 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">    ├─META-INF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    └─WEB-INF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ├─jsp</t>
   </si>
   <si>
     <t xml:space="preserve">        │      forwardSample.jsp</t>
@@ -750,10 +735,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,10 +880,6 @@
   </si>
   <si>
     <t>dispatcher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chap10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -946,6 +923,103 @@
       <t>セイテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>└─webapp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├─java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  └─servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    └─WEB-INF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ├─jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枝</t>
+    <rPh sb="0" eb="1">
+      <t>エダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webapp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java\servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webapp\WEB-INF\jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java\model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docoTsubu</t>
+  </si>
+  <si>
+    <t>java\filter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webapp\WEB-INF\lib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java\dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chap10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chap11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FilterSample.java</t>
+  </si>
+  <si>
+    <t>chap12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jstl-api-1.2.jar</t>
+  </si>
+  <si>
+    <t>jstl-impl-1.2.jar</t>
+  </si>
+  <si>
+    <t>chap13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MutterDAO.java</t>
+  </si>
+  <si>
+    <t>GetMutterListLogic.java</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1378,38 +1452,38 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1424,20 +1498,20 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>203</v>
@@ -1445,10 +1519,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>203</v>
@@ -1456,10 +1530,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>228</v>
@@ -1467,10 +1541,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>254</v>
@@ -1478,10 +1552,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>255</v>
@@ -1489,10 +1563,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>227</v>
@@ -1500,20 +1574,20 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>151</v>
@@ -1521,10 +1595,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>174</v>
@@ -1532,10 +1606,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>204</v>
@@ -1543,10 +1617,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>256</v>
@@ -1554,10 +1628,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>179</v>
@@ -1565,10 +1639,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>228</v>
@@ -1576,10 +1650,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>94</v>
@@ -1592,15 +1666,15 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>150</v>
@@ -1608,10 +1682,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>69</v>
@@ -1619,10 +1693,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>122</v>
@@ -1630,41 +1704,41 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="C36">
         <v>171</v>
@@ -1672,10 +1746,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>175</v>
@@ -1683,10 +1757,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>206</v>
@@ -1694,10 +1768,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>207</v>
@@ -1705,10 +1779,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>257</v>
@@ -1716,10 +1790,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>232</v>
@@ -1727,10 +1801,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>233</v>
@@ -1738,10 +1812,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>231</v>
@@ -1749,12 +1823,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1771,9 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1815,1978 +1889,1978 @@
   <sheetData>
     <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="N1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="V1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="W1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AG1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C3" s="9">
         <v>69</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9">
         <v>94</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C5" s="9">
         <v>122</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C6" s="9">
         <v>150</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="9">
         <v>174</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" s="9">
         <v>179</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" s="9">
         <v>203</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="9">
         <v>227</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="S10" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C11" s="9">
         <v>227</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C12" s="9">
         <v>254</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" s="9">
         <v>254</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C14" s="9">
         <v>280</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="O14" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="P14" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="R14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="U14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="W14" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="X14" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y14" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Z14" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="S14" s="9" t="s">
+      <c r="AA14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC14" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="AD14" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="U14" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC14" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="AE14" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C15" s="9">
         <v>317</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH15" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C16" s="9">
         <v>346</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C17" s="9">
         <v>349</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AH18" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AH19" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3815,9 +3889,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3827,43 +3901,51 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>188</v>
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -3872,12 +3954,18 @@
         <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -3886,12 +3974,18 @@
         <v>94</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -3900,12 +3994,18 @@
         <v>122</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -3914,12 +4014,18 @@
         <v>150</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -3928,12 +4034,18 @@
         <v>151</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -3942,12 +4054,18 @@
         <v>174</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -3956,12 +4074,18 @@
         <v>175</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -3970,12 +4094,18 @@
         <v>179</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -3984,24 +4114,30 @@
         <v>203</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -4010,24 +4146,30 @@
         <v>203</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -4036,24 +4178,30 @@
         <v>203</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="9">
         <v>3</v>
@@ -4062,24 +4210,30 @@
         <v>203</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -4088,12 +4242,18 @@
         <v>203</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -4102,24 +4262,30 @@
         <v>204</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -4128,27 +4294,33 @@
         <v>204</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -4157,12 +4329,18 @@
         <v>206</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -4171,12 +4349,18 @@
         <v>207</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -4185,24 +4369,30 @@
         <v>227</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
@@ -4211,24 +4401,30 @@
         <v>227</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="9">
         <v>0</v>
@@ -4237,24 +4433,30 @@
         <v>227</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22" s="9">
         <v>0</v>
@@ -4263,12 +4465,18 @@
         <v>228</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="9">
         <v>0</v>
@@ -4277,24 +4485,30 @@
         <v>228</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -4303,27 +4517,33 @@
         <v>228</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="9">
         <v>0</v>
@@ -4332,12 +4552,18 @@
         <v>231</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B26" s="9">
         <v>0</v>
@@ -4346,12 +4572,18 @@
         <v>232</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" s="9">
         <v>0</v>
@@ -4360,12 +4592,18 @@
         <v>233</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B28" s="9">
         <v>0</v>
@@ -4374,24 +4612,30 @@
         <v>254</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -4400,24 +4644,30 @@
         <v>254</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B30" s="9">
         <v>0</v>
@@ -4426,12 +4676,18 @@
         <v>255</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" s="9">
         <v>0</v>
@@ -4440,12 +4696,18 @@
         <v>256</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
@@ -4454,21 +4716,27 @@
         <v>256</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B33" s="9">
         <v>2</v>
@@ -4477,21 +4745,27 @@
         <v>256</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B34" s="9">
         <v>3</v>
@@ -4500,27 +4774,33 @@
         <v>256</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B35" s="9">
         <v>4</v>
@@ -4529,24 +4809,30 @@
         <v>256</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B36" s="9">
         <v>5</v>
@@ -4555,21 +4841,27 @@
         <v>256</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B37" s="9">
         <v>6</v>
@@ -4578,21 +4870,27 @@
         <v>256</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B38" s="9">
         <v>7</v>
@@ -4601,21 +4899,27 @@
         <v>256</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B39" s="9">
         <v>0</v>
@@ -4624,165 +4928,417 @@
         <v>257</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>280</v>
-      </c>
-      <c r="D40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
+        <v>244</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0</v>
       </c>
       <c r="C41">
+        <v>272</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="9">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>278</v>
       </c>
-      <c r="D41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>271</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D42" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
+        <v>244</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0</v>
       </c>
       <c r="C43">
         <v>278</v>
       </c>
-      <c r="D43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D43" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
+        <v>244</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0</v>
       </c>
       <c r="C44">
         <v>280</v>
       </c>
-      <c r="D44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D44" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45">
-        <v>6</v>
+        <v>244</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0</v>
       </c>
       <c r="C45">
+        <v>280</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>290</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>292</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="9">
+        <v>0</v>
+      </c>
+      <c r="C48">
         <v>302</v>
       </c>
-      <c r="D45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>272</v>
-      </c>
-      <c r="D46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="C47">
+      <c r="D48" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>304</v>
       </c>
-      <c r="D47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-      <c r="C48">
+      <c r="D49" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>296</v>
       </c>
-      <c r="D48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>290</v>
-      </c>
-      <c r="D49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>292</v>
-      </c>
-      <c r="D50" t="s">
-        <v>184</v>
+      <c r="D50" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>332</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>360</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>360</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>367</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>399</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>400</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>402</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>403</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>403</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
